--- a/Waxing_Ver_02_Documents/02_Schedules/WBS_KururuWaxingShop.xlsx
+++ b/Waxing_Ver_02_Documents/02_Schedules/WBS_KururuWaxingShop.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>WBS</t>
   </si>
@@ -513,10 +513,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Database : Single Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DAO</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -553,10 +549,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Add Test case</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>C_1112</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -569,27 +561,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Write Evidence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWS1141</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWS1142</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>KWS1111</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>KWS1121</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWS1131</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -605,11 +581,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Auto Creating SQL, Mapper Document</t>
+    <t>Add Test case</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Write Document</t>
+    <t>KWS1141</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWS1131</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database : Single Table(DAO)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write Enums</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -617,7 +605,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>D_1311</t>
+    <t>Enums in public</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write Base Constants</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWS1151-1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1901,7 +1897,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="6"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2052,7 +2048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Arial">
       <a:majorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2087,7 +2083,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2299,11 +2295,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN68"/>
+  <dimension ref="A1:BN87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2406,13 +2402,13 @@
         <v>14</v>
       </c>
       <c r="H4" s="93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="76"/>
       <c r="J4" s="17"/>
       <c r="K4" s="107" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
+        <v>Week 6</v>
       </c>
       <c r="L4" s="108"/>
       <c r="M4" s="108"/>
@@ -2422,7 +2418,7 @@
       <c r="Q4" s="109"/>
       <c r="R4" s="107" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
+        <v>Week 7</v>
       </c>
       <c r="S4" s="108"/>
       <c r="T4" s="108"/>
@@ -2432,7 +2428,7 @@
       <c r="X4" s="109"/>
       <c r="Y4" s="107" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
+        <v>Week 8</v>
       </c>
       <c r="Z4" s="108"/>
       <c r="AA4" s="108"/>
@@ -2442,7 +2438,7 @@
       <c r="AE4" s="109"/>
       <c r="AF4" s="107" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
+        <v>Week 9</v>
       </c>
       <c r="AG4" s="108"/>
       <c r="AH4" s="108"/>
@@ -2452,7 +2448,7 @@
       <c r="AL4" s="109"/>
       <c r="AM4" s="107" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
+        <v>Week 10</v>
       </c>
       <c r="AN4" s="108"/>
       <c r="AO4" s="108"/>
@@ -2462,7 +2458,7 @@
       <c r="AS4" s="109"/>
       <c r="AT4" s="107" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
+        <v>Week 11</v>
       </c>
       <c r="AU4" s="108"/>
       <c r="AV4" s="108"/>
@@ -2472,7 +2468,7 @@
       <c r="AZ4" s="109"/>
       <c r="BA4" s="107" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
+        <v>Week 12</v>
       </c>
       <c r="BB4" s="108"/>
       <c r="BC4" s="108"/>
@@ -2482,7 +2478,7 @@
       <c r="BG4" s="109"/>
       <c r="BH4" s="107" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
+        <v>Week 13</v>
       </c>
       <c r="BI4" s="108"/>
       <c r="BJ4" s="108"/>
@@ -2506,7 +2502,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="111">
         <f>K6</f>
-        <v>43283</v>
+        <v>43318</v>
       </c>
       <c r="L5" s="112"/>
       <c r="M5" s="112"/>
@@ -2516,7 +2512,7 @@
       <c r="Q5" s="113"/>
       <c r="R5" s="111">
         <f>R6</f>
-        <v>43290</v>
+        <v>43325</v>
       </c>
       <c r="S5" s="112"/>
       <c r="T5" s="112"/>
@@ -2526,7 +2522,7 @@
       <c r="X5" s="113"/>
       <c r="Y5" s="111">
         <f>Y6</f>
-        <v>43297</v>
+        <v>43332</v>
       </c>
       <c r="Z5" s="112"/>
       <c r="AA5" s="112"/>
@@ -2536,7 +2532,7 @@
       <c r="AE5" s="113"/>
       <c r="AF5" s="111">
         <f>AF6</f>
-        <v>43304</v>
+        <v>43339</v>
       </c>
       <c r="AG5" s="112"/>
       <c r="AH5" s="112"/>
@@ -2546,7 +2542,7 @@
       <c r="AL5" s="113"/>
       <c r="AM5" s="111">
         <f>AM6</f>
-        <v>43311</v>
+        <v>43346</v>
       </c>
       <c r="AN5" s="112"/>
       <c r="AO5" s="112"/>
@@ -2556,7 +2552,7 @@
       <c r="AS5" s="113"/>
       <c r="AT5" s="111">
         <f>AT6</f>
-        <v>43318</v>
+        <v>43353</v>
       </c>
       <c r="AU5" s="112"/>
       <c r="AV5" s="112"/>
@@ -2566,7 +2562,7 @@
       <c r="AZ5" s="113"/>
       <c r="BA5" s="111">
         <f>BA6</f>
-        <v>43325</v>
+        <v>43360</v>
       </c>
       <c r="BB5" s="112"/>
       <c r="BC5" s="112"/>
@@ -2576,7 +2572,7 @@
       <c r="BG5" s="113"/>
       <c r="BH5" s="111">
         <f>BH6</f>
-        <v>43332</v>
+        <v>43367</v>
       </c>
       <c r="BI5" s="112"/>
       <c r="BJ5" s="112"/>
@@ -2598,227 +2594,227 @@
       <c r="J6" s="17"/>
       <c r="K6" s="57">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43283</v>
+        <v>43318</v>
       </c>
       <c r="L6" s="49">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43284</v>
+        <v>43319</v>
       </c>
       <c r="M6" s="49">
         <f t="shared" si="0"/>
-        <v>43285</v>
+        <v>43320</v>
       </c>
       <c r="N6" s="49">
         <f t="shared" si="0"/>
-        <v>43286</v>
+        <v>43321</v>
       </c>
       <c r="O6" s="49">
         <f t="shared" si="0"/>
-        <v>43287</v>
+        <v>43322</v>
       </c>
       <c r="P6" s="49">
         <f t="shared" si="0"/>
-        <v>43288</v>
+        <v>43323</v>
       </c>
       <c r="Q6" s="58">
         <f t="shared" si="0"/>
-        <v>43289</v>
+        <v>43324</v>
       </c>
       <c r="R6" s="57">
         <f t="shared" si="0"/>
-        <v>43290</v>
+        <v>43325</v>
       </c>
       <c r="S6" s="49">
         <f t="shared" si="0"/>
-        <v>43291</v>
+        <v>43326</v>
       </c>
       <c r="T6" s="49">
         <f t="shared" si="0"/>
-        <v>43292</v>
+        <v>43327</v>
       </c>
       <c r="U6" s="49">
         <f t="shared" si="0"/>
-        <v>43293</v>
+        <v>43328</v>
       </c>
       <c r="V6" s="49">
         <f t="shared" si="0"/>
-        <v>43294</v>
+        <v>43329</v>
       </c>
       <c r="W6" s="49">
         <f t="shared" si="0"/>
-        <v>43295</v>
+        <v>43330</v>
       </c>
       <c r="X6" s="58">
         <f t="shared" si="0"/>
-        <v>43296</v>
+        <v>43331</v>
       </c>
       <c r="Y6" s="57">
         <f t="shared" si="0"/>
-        <v>43297</v>
+        <v>43332</v>
       </c>
       <c r="Z6" s="49">
         <f t="shared" si="0"/>
-        <v>43298</v>
+        <v>43333</v>
       </c>
       <c r="AA6" s="49">
         <f t="shared" si="0"/>
-        <v>43299</v>
+        <v>43334</v>
       </c>
       <c r="AB6" s="49">
         <f t="shared" si="0"/>
-        <v>43300</v>
+        <v>43335</v>
       </c>
       <c r="AC6" s="49">
         <f t="shared" si="0"/>
-        <v>43301</v>
+        <v>43336</v>
       </c>
       <c r="AD6" s="49">
         <f t="shared" si="0"/>
-        <v>43302</v>
+        <v>43337</v>
       </c>
       <c r="AE6" s="58">
         <f t="shared" si="0"/>
-        <v>43303</v>
+        <v>43338</v>
       </c>
       <c r="AF6" s="57">
         <f t="shared" si="0"/>
-        <v>43304</v>
+        <v>43339</v>
       </c>
       <c r="AG6" s="49">
         <f t="shared" si="0"/>
-        <v>43305</v>
+        <v>43340</v>
       </c>
       <c r="AH6" s="49">
         <f t="shared" si="0"/>
-        <v>43306</v>
+        <v>43341</v>
       </c>
       <c r="AI6" s="49">
         <f t="shared" si="0"/>
-        <v>43307</v>
+        <v>43342</v>
       </c>
       <c r="AJ6" s="49">
         <f t="shared" si="0"/>
-        <v>43308</v>
+        <v>43343</v>
       </c>
       <c r="AK6" s="49">
         <f t="shared" si="0"/>
-        <v>43309</v>
+        <v>43344</v>
       </c>
       <c r="AL6" s="58">
         <f t="shared" si="0"/>
-        <v>43310</v>
+        <v>43345</v>
       </c>
       <c r="AM6" s="57">
         <f t="shared" si="0"/>
-        <v>43311</v>
+        <v>43346</v>
       </c>
       <c r="AN6" s="49">
         <f t="shared" si="0"/>
-        <v>43312</v>
+        <v>43347</v>
       </c>
       <c r="AO6" s="49">
         <f t="shared" si="0"/>
-        <v>43313</v>
+        <v>43348</v>
       </c>
       <c r="AP6" s="49">
         <f t="shared" si="0"/>
-        <v>43314</v>
+        <v>43349</v>
       </c>
       <c r="AQ6" s="49">
         <f t="shared" si="0"/>
-        <v>43315</v>
+        <v>43350</v>
       </c>
       <c r="AR6" s="49">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>43316</v>
+        <v>43351</v>
       </c>
       <c r="AS6" s="58">
         <f t="shared" si="1"/>
-        <v>43317</v>
+        <v>43352</v>
       </c>
       <c r="AT6" s="57">
         <f t="shared" si="1"/>
-        <v>43318</v>
+        <v>43353</v>
       </c>
       <c r="AU6" s="49">
         <f t="shared" si="1"/>
-        <v>43319</v>
+        <v>43354</v>
       </c>
       <c r="AV6" s="49">
         <f t="shared" si="1"/>
-        <v>43320</v>
+        <v>43355</v>
       </c>
       <c r="AW6" s="49">
         <f t="shared" si="1"/>
-        <v>43321</v>
+        <v>43356</v>
       </c>
       <c r="AX6" s="49">
         <f t="shared" si="1"/>
-        <v>43322</v>
+        <v>43357</v>
       </c>
       <c r="AY6" s="49">
         <f t="shared" si="1"/>
-        <v>43323</v>
+        <v>43358</v>
       </c>
       <c r="AZ6" s="58">
         <f t="shared" si="1"/>
-        <v>43324</v>
+        <v>43359</v>
       </c>
       <c r="BA6" s="57">
         <f t="shared" si="1"/>
-        <v>43325</v>
+        <v>43360</v>
       </c>
       <c r="BB6" s="49">
         <f t="shared" si="1"/>
-        <v>43326</v>
+        <v>43361</v>
       </c>
       <c r="BC6" s="49">
         <f t="shared" si="1"/>
-        <v>43327</v>
+        <v>43362</v>
       </c>
       <c r="BD6" s="49">
         <f t="shared" si="1"/>
-        <v>43328</v>
+        <v>43363</v>
       </c>
       <c r="BE6" s="49">
         <f t="shared" si="1"/>
-        <v>43329</v>
+        <v>43364</v>
       </c>
       <c r="BF6" s="49">
         <f t="shared" si="1"/>
-        <v>43330</v>
+        <v>43365</v>
       </c>
       <c r="BG6" s="58">
         <f t="shared" si="1"/>
-        <v>43331</v>
+        <v>43366</v>
       </c>
       <c r="BH6" s="57">
         <f t="shared" si="1"/>
-        <v>43332</v>
+        <v>43367</v>
       </c>
       <c r="BI6" s="49">
         <f t="shared" si="1"/>
-        <v>43333</v>
+        <v>43368</v>
       </c>
       <c r="BJ6" s="49">
         <f t="shared" si="1"/>
-        <v>43334</v>
+        <v>43369</v>
       </c>
       <c r="BK6" s="49">
         <f t="shared" si="1"/>
-        <v>43335</v>
+        <v>43370</v>
       </c>
       <c r="BL6" s="49">
         <f t="shared" si="1"/>
-        <v>43336</v>
+        <v>43371</v>
       </c>
       <c r="BM6" s="49">
         <f t="shared" si="1"/>
-        <v>43337</v>
+        <v>43372</v>
       </c>
       <c r="BN6" s="58">
         <f t="shared" si="1"/>
-        <v>43338</v>
+        <v>43373</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="88" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3093,7 +3089,7 @@
       <c r="G8" s="54"/>
       <c r="H8" s="55"/>
       <c r="I8" s="56" t="str">
-        <f t="shared" ref="I8:I61" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I80" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="59"/>
@@ -3156,11 +3152,11 @@
     </row>
     <row r="9" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="100" t="str">
-        <f t="shared" ref="A9:A40" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A59" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D9" s="91"/>
       <c r="E9" s="102">
@@ -3244,7 +3240,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="91"/>
       <c r="E10" s="102">
@@ -3260,7 +3256,10 @@
       <c r="H10" s="29">
         <v>1</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="60"/>
       <c r="K10" s="71"/>
       <c r="L10" s="71"/>
@@ -3325,10 +3324,10 @@
         <v>1.1.1.1</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" s="91"/>
       <c r="E11" s="102">
@@ -3412,17 +3411,17 @@
         <v>1.1.1.2</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="91"/>
       <c r="E12" s="102">
         <v>43289</v>
       </c>
       <c r="F12" s="103">
-        <f t="shared" ref="F12:F59" si="6">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <f t="shared" ref="F12:F78" si="6">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
         <v>43289</v>
       </c>
       <c r="G12" s="28">
@@ -3499,7 +3498,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="91"/>
       <c r="E13" s="102">
@@ -3583,10 +3582,10 @@
         <v>1.1.2.1</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" s="91"/>
       <c r="E14" s="102">
@@ -3670,10 +3669,10 @@
         <v>1.1.2.2</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="91"/>
       <c r="E15" s="102">
@@ -3757,21 +3756,21 @@
         <v>1.1.3</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="91"/>
       <c r="E16" s="102">
-        <v>43290</v>
+        <v>43332</v>
       </c>
       <c r="F16" s="103">
         <f t="shared" si="6"/>
-        <v>43291</v>
+        <v>43333</v>
       </c>
       <c r="G16" s="28">
         <v>2</v>
       </c>
       <c r="H16" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="30">
         <f t="shared" si="4"/>
@@ -3841,24 +3840,24 @@
         <v>1.1.3.1</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="91"/>
       <c r="E17" s="102">
-        <v>43290</v>
+        <v>43332</v>
       </c>
       <c r="F17" s="103">
         <f t="shared" si="6"/>
-        <v>43290</v>
+        <v>43332</v>
       </c>
       <c r="G17" s="28">
         <v>1</v>
       </c>
       <c r="H17" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="30">
         <f t="shared" si="4"/>
@@ -3928,24 +3927,24 @@
         <v>1.1.3.2</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="91"/>
       <c r="E18" s="102">
-        <v>43291</v>
+        <v>43333</v>
       </c>
       <c r="F18" s="103">
         <f t="shared" si="6"/>
-        <v>43291</v>
+        <v>43333</v>
       </c>
       <c r="G18" s="28">
         <v>1</v>
       </c>
       <c r="H18" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="4"/>
@@ -4015,25 +4014,25 @@
         <v>1.1.4</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19" s="91"/>
       <c r="E19" s="102">
-        <v>43296</v>
+        <v>43334</v>
       </c>
       <c r="F19" s="103">
         <f t="shared" si="6"/>
-        <v>43296</v>
+        <v>43336</v>
       </c>
       <c r="G19" s="28">
+        <v>3</v>
+      </c>
+      <c r="H19" s="29">
         <v>1</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="71"/>
@@ -4099,26 +4098,29 @@
         <v>1.1.4.1</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D20" s="91"/>
       <c r="E20" s="102">
-        <v>43296</v>
+        <v>43334</v>
       </c>
       <c r="F20" s="103">
         <f t="shared" si="6"/>
-        <v>43296</v>
+        <v>43334</v>
       </c>
       <c r="G20" s="28">
         <v>1</v>
       </c>
       <c r="H20" s="29">
-        <v>0</v>
-      </c>
-      <c r="I20" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="J20" s="60"/>
       <c r="K20" s="71"/>
       <c r="L20" s="71"/>
@@ -4186,23 +4188,26 @@
         <v>39</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="91"/>
       <c r="E21" s="102">
-        <v>43296</v>
+        <v>43336</v>
       </c>
       <c r="F21" s="103">
         <f t="shared" si="6"/>
-        <v>43296</v>
+        <v>43336</v>
       </c>
       <c r="G21" s="28">
         <v>1</v>
       </c>
       <c r="H21" s="29">
-        <v>0</v>
-      </c>
-      <c r="I21" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="J21" s="60"/>
       <c r="K21" s="71"/>
       <c r="L21" s="71"/>
@@ -4263,30 +4268,30 @@
     </row>
     <row r="22" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.4.3</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>46</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.5</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="91"/>
       <c r="E22" s="102">
-        <v>43296</v>
+        <v>43344</v>
       </c>
       <c r="F22" s="103">
         <f t="shared" si="6"/>
-        <v>43296</v>
+        <v>43344</v>
       </c>
       <c r="G22" s="28">
         <v>1</v>
       </c>
       <c r="H22" s="29">
+        <v>1</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I22" s="30"/>
       <c r="J22" s="60"/>
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
@@ -4347,30 +4352,33 @@
     </row>
     <row r="23" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.5</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>48</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.5.1</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>46</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D23" s="91"/>
       <c r="E23" s="102">
-        <v>43297</v>
+        <v>43344</v>
       </c>
       <c r="F23" s="103">
         <f t="shared" si="6"/>
-        <v>43298</v>
+        <v>43344</v>
       </c>
       <c r="G23" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="29">
+        <v>1</v>
+      </c>
+      <c r="I23" s="30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I23" s="30"/>
       <c r="J23" s="60"/>
       <c r="K23" s="71"/>
       <c r="L23" s="71"/>
@@ -4432,29 +4440,32 @@
     <row r="24" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.5.1</v>
+        <v>1.1.5.2</v>
       </c>
       <c r="B24" s="98" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="102">
-        <v>43297</v>
+        <v>43344</v>
       </c>
       <c r="F24" s="103">
         <f t="shared" si="6"/>
-        <v>43298</v>
+        <v>43344</v>
       </c>
       <c r="G24" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="29">
         <v>0</v>
       </c>
-      <c r="I24" s="30"/>
+      <c r="I24" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="J24" s="60"/>
       <c r="K24" s="71"/>
       <c r="L24" s="71"/>
@@ -4515,7 +4526,7 @@
     </row>
     <row r="25" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="100"/>
-      <c r="B25" s="90"/>
+      <c r="B25" s="98"/>
       <c r="D25" s="91"/>
       <c r="E25" s="102"/>
       <c r="F25" s="103" t="str">
@@ -4524,7 +4535,10 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J25" s="60"/>
       <c r="K25" s="71"/>
       <c r="L25" s="71"/>
@@ -4585,7 +4599,7 @@
     </row>
     <row r="26" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="100"/>
-      <c r="B26" s="90"/>
+      <c r="B26" s="92"/>
       <c r="D26" s="91"/>
       <c r="E26" s="102"/>
       <c r="F26" s="103" t="str">
@@ -4594,7 +4608,10 @@
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J26" s="60"/>
       <c r="K26" s="71"/>
       <c r="L26" s="71"/>
@@ -4655,7 +4672,7 @@
     </row>
     <row r="27" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="100"/>
-      <c r="B27" s="90"/>
+      <c r="B27" s="98"/>
       <c r="D27" s="91"/>
       <c r="E27" s="102"/>
       <c r="F27" s="103" t="str">
@@ -4664,7 +4681,10 @@
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J27" s="60"/>
       <c r="K27" s="71"/>
       <c r="L27" s="71"/>
@@ -4725,7 +4745,7 @@
     </row>
     <row r="28" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="100"/>
-      <c r="B28" s="90"/>
+      <c r="B28" s="98"/>
       <c r="D28" s="91"/>
       <c r="E28" s="102"/>
       <c r="F28" s="103" t="str">
@@ -4734,7 +4754,10 @@
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J28" s="60"/>
       <c r="K28" s="71"/>
       <c r="L28" s="71"/>
@@ -4795,7 +4818,9 @@
     </row>
     <row r="29" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A29" s="100"/>
-      <c r="B29" s="90"/>
+      <c r="B29" s="92" t="s">
+        <v>25</v>
+      </c>
       <c r="D29" s="91"/>
       <c r="E29" s="102"/>
       <c r="F29" s="103" t="str">
@@ -4804,7 +4829,10 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J29" s="60"/>
       <c r="K29" s="71"/>
       <c r="L29" s="71"/>
@@ -4865,7 +4893,9 @@
     </row>
     <row r="30" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" s="100"/>
-      <c r="B30" s="90"/>
+      <c r="B30" s="98" t="s">
+        <v>32</v>
+      </c>
       <c r="D30" s="91"/>
       <c r="E30" s="102"/>
       <c r="F30" s="103" t="str">
@@ -4874,7 +4904,10 @@
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J30" s="60"/>
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
@@ -4935,7 +4968,9 @@
     </row>
     <row r="31" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A31" s="100"/>
-      <c r="B31" s="90"/>
+      <c r="B31" s="98" t="s">
+        <v>33</v>
+      </c>
       <c r="D31" s="91"/>
       <c r="E31" s="102"/>
       <c r="F31" s="103" t="str">
@@ -4944,7 +4979,10 @@
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
+      <c r="I31" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J31" s="60"/>
       <c r="K31" s="71"/>
       <c r="L31" s="71"/>
@@ -5005,7 +5043,9 @@
     </row>
     <row r="32" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="100"/>
-      <c r="B32" s="90"/>
+      <c r="B32" s="92" t="s">
+        <v>41</v>
+      </c>
       <c r="D32" s="91"/>
       <c r="E32" s="102"/>
       <c r="F32" s="103" t="str">
@@ -5014,7 +5054,10 @@
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
+      <c r="I32" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J32" s="60"/>
       <c r="K32" s="71"/>
       <c r="L32" s="71"/>
@@ -5075,7 +5118,9 @@
     </row>
     <row r="33" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="100"/>
-      <c r="B33" s="90"/>
+      <c r="B33" s="98" t="s">
+        <v>42</v>
+      </c>
       <c r="D33" s="91"/>
       <c r="E33" s="102"/>
       <c r="F33" s="103" t="str">
@@ -5084,7 +5129,10 @@
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
+      <c r="I33" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J33" s="60"/>
       <c r="K33" s="71"/>
       <c r="L33" s="71"/>
@@ -5145,7 +5193,9 @@
     </row>
     <row r="34" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A34" s="100"/>
-      <c r="B34" s="90"/>
+      <c r="B34" s="98" t="s">
+        <v>39</v>
+      </c>
       <c r="D34" s="91"/>
       <c r="E34" s="102"/>
       <c r="F34" s="103" t="str">
@@ -5154,7 +5204,10 @@
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+      <c r="I34" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J34" s="60"/>
       <c r="K34" s="71"/>
       <c r="L34" s="71"/>
@@ -5215,7 +5268,9 @@
     </row>
     <row r="35" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" s="100"/>
-      <c r="B35" s="90"/>
+      <c r="B35" s="90" t="s">
+        <v>45</v>
+      </c>
       <c r="D35" s="91"/>
       <c r="E35" s="102"/>
       <c r="F35" s="103" t="str">
@@ -5224,7 +5279,10 @@
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
+      <c r="I35" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J35" s="60"/>
       <c r="K35" s="71"/>
       <c r="L35" s="71"/>
@@ -5285,7 +5343,9 @@
     </row>
     <row r="36" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A36" s="100"/>
-      <c r="B36" s="90"/>
+      <c r="B36" s="92" t="s">
+        <v>27</v>
+      </c>
       <c r="D36" s="91"/>
       <c r="E36" s="102"/>
       <c r="F36" s="103" t="str">
@@ -5294,7 +5354,10 @@
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="I36" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J36" s="60"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
@@ -5355,7 +5418,9 @@
     </row>
     <row r="37" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="100"/>
-      <c r="B37" s="90"/>
+      <c r="B37" s="98" t="s">
+        <v>28</v>
+      </c>
       <c r="D37" s="91"/>
       <c r="E37" s="102"/>
       <c r="F37" s="103" t="str">
@@ -5364,7 +5429,10 @@
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
+      <c r="I37" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J37" s="60"/>
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
@@ -5425,7 +5493,9 @@
     </row>
     <row r="38" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="100"/>
-      <c r="B38" s="90"/>
+      <c r="B38" s="98" t="s">
+        <v>29</v>
+      </c>
       <c r="D38" s="91"/>
       <c r="E38" s="102"/>
       <c r="F38" s="103" t="str">
@@ -5434,7 +5504,10 @@
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
+      <c r="I38" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J38" s="60"/>
       <c r="K38" s="71"/>
       <c r="L38" s="71"/>
@@ -5495,7 +5568,9 @@
     </row>
     <row r="39" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A39" s="100"/>
-      <c r="B39" s="90"/>
+      <c r="B39" s="92" t="s">
+        <v>26</v>
+      </c>
       <c r="D39" s="91"/>
       <c r="E39" s="102"/>
       <c r="F39" s="103" t="str">
@@ -5504,7 +5579,10 @@
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
+      <c r="I39" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J39" s="60"/>
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
@@ -5564,12 +5642,9 @@
       <c r="BN39" s="71"/>
     </row>
     <row r="40" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="100" t="str">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>24</v>
+      <c r="A40" s="100"/>
+      <c r="B40" s="98" t="s">
+        <v>30</v>
       </c>
       <c r="D40" s="91"/>
       <c r="E40" s="102"/>
@@ -5579,7 +5654,10 @@
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
+      <c r="I40" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J40" s="60"/>
       <c r="K40" s="71"/>
       <c r="L40" s="71"/>
@@ -5639,11 +5717,10 @@
       <c r="BN40" s="71"/>
     </row>
     <row r="41" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>0.1.1</v>
-      </c>
-      <c r="B41" s="90"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="98" t="s">
+        <v>31</v>
+      </c>
       <c r="D41" s="91"/>
       <c r="E41" s="102"/>
       <c r="F41" s="103" t="str">
@@ -5651,9 +5728,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="29">
-        <v>0</v>
-      </c>
+      <c r="H41" s="29"/>
       <c r="I41" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -5716,91 +5791,85 @@
       <c r="BM41" s="71"/>
       <c r="BN41" s="71"/>
     </row>
-    <row r="42" spans="1:66" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="101" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104" t="str">
+    <row r="42" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="100"/>
+      <c r="B42" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="91"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="103" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25" t="str">
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J42" s="61"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="73"/>
-      <c r="AA42" s="73"/>
-      <c r="AB42" s="73"/>
-      <c r="AC42" s="73"/>
-      <c r="AD42" s="73"/>
-      <c r="AE42" s="73"/>
-      <c r="AF42" s="73"/>
-      <c r="AG42" s="73"/>
-      <c r="AH42" s="73"/>
-      <c r="AI42" s="73"/>
-      <c r="AJ42" s="73"/>
-      <c r="AK42" s="73"/>
-      <c r="AL42" s="73"/>
-      <c r="AM42" s="73"/>
-      <c r="AN42" s="73"/>
-      <c r="AO42" s="73"/>
-      <c r="AP42" s="73"/>
-      <c r="AQ42" s="73"/>
-      <c r="AR42" s="73"/>
-      <c r="AS42" s="73"/>
-      <c r="AT42" s="73"/>
-      <c r="AU42" s="73"/>
-      <c r="AV42" s="73"/>
-      <c r="AW42" s="73"/>
-      <c r="AX42" s="73"/>
-      <c r="AY42" s="73"/>
-      <c r="AZ42" s="73"/>
-      <c r="BA42" s="73"/>
-      <c r="BB42" s="73"/>
-      <c r="BC42" s="73"/>
-      <c r="BD42" s="73"/>
-      <c r="BE42" s="73"/>
-      <c r="BF42" s="73"/>
-      <c r="BG42" s="73"/>
-      <c r="BH42" s="73"/>
-      <c r="BI42" s="73"/>
-      <c r="BJ42" s="73"/>
-      <c r="BK42" s="73"/>
-      <c r="BL42" s="73"/>
-      <c r="BM42" s="73"/>
-      <c r="BN42" s="73"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="71"/>
+      <c r="AF42" s="71"/>
+      <c r="AG42" s="71"/>
+      <c r="AH42" s="71"/>
+      <c r="AI42" s="71"/>
+      <c r="AJ42" s="71"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="71"/>
+      <c r="AM42" s="71"/>
+      <c r="AN42" s="71"/>
+      <c r="AO42" s="71"/>
+      <c r="AP42" s="71"/>
+      <c r="AQ42" s="71"/>
+      <c r="AR42" s="71"/>
+      <c r="AS42" s="71"/>
+      <c r="AT42" s="71"/>
+      <c r="AU42" s="71"/>
+      <c r="AV42" s="71"/>
+      <c r="AW42" s="71"/>
+      <c r="AX42" s="71"/>
+      <c r="AY42" s="71"/>
+      <c r="AZ42" s="71"/>
+      <c r="BA42" s="71"/>
+      <c r="BB42" s="71"/>
+      <c r="BC42" s="71"/>
+      <c r="BD42" s="71"/>
+      <c r="BE42" s="71"/>
+      <c r="BF42" s="71"/>
+      <c r="BG42" s="71"/>
+      <c r="BH42" s="71"/>
+      <c r="BI42" s="71"/>
+      <c r="BJ42" s="71"/>
+      <c r="BK42" s="71"/>
+      <c r="BL42" s="71"/>
+      <c r="BM42" s="71"/>
+      <c r="BN42" s="71"/>
     </row>
     <row r="43" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B43" s="90" t="s">
-        <v>3</v>
+      <c r="A43" s="100"/>
+      <c r="B43" s="98" t="s">
+        <v>32</v>
       </c>
       <c r="D43" s="91"/>
       <c r="E43" s="102"/>
@@ -5809,9 +5878,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="29">
-        <v>0</v>
-      </c>
+      <c r="H43" s="29"/>
       <c r="I43" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -5875,12 +5942,9 @@
       <c r="BN43" s="71"/>
     </row>
     <row r="44" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.2</v>
-      </c>
-      <c r="B44" s="90" t="s">
-        <v>3</v>
+      <c r="A44" s="100"/>
+      <c r="B44" s="98" t="s">
+        <v>33</v>
       </c>
       <c r="D44" s="91"/>
       <c r="E44" s="102"/>
@@ -5889,9 +5953,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="29">
-        <v>0</v>
-      </c>
+      <c r="H44" s="29"/>
       <c r="I44" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -5955,12 +6017,9 @@
       <c r="BN44" s="71"/>
     </row>
     <row r="45" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.3</v>
-      </c>
-      <c r="B45" s="90" t="s">
-        <v>3</v>
+      <c r="A45" s="100"/>
+      <c r="B45" s="92" t="s">
+        <v>41</v>
       </c>
       <c r="D45" s="91"/>
       <c r="E45" s="102"/>
@@ -5969,9 +6028,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G45" s="28"/>
-      <c r="H45" s="29">
-        <v>0</v>
-      </c>
+      <c r="H45" s="29"/>
       <c r="I45" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6035,12 +6092,9 @@
       <c r="BN45" s="71"/>
     </row>
     <row r="46" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.4</v>
-      </c>
-      <c r="B46" s="90" t="s">
-        <v>3</v>
+      <c r="A46" s="100"/>
+      <c r="B46" s="98" t="s">
+        <v>42</v>
       </c>
       <c r="D46" s="91"/>
       <c r="E46" s="102"/>
@@ -6049,9 +6103,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G46" s="28"/>
-      <c r="H46" s="29">
-        <v>0</v>
-      </c>
+      <c r="H46" s="29"/>
       <c r="I46" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6115,12 +6167,9 @@
       <c r="BN46" s="71"/>
     </row>
     <row r="47" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.5</v>
-      </c>
-      <c r="B47" s="90" t="s">
-        <v>3</v>
+      <c r="A47" s="100"/>
+      <c r="B47" s="98" t="s">
+        <v>39</v>
       </c>
       <c r="D47" s="91"/>
       <c r="E47" s="102"/>
@@ -6129,9 +6178,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G47" s="28"/>
-      <c r="H47" s="29">
-        <v>0</v>
-      </c>
+      <c r="H47" s="29"/>
       <c r="I47" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6194,92 +6241,82 @@
       <c r="BM47" s="71"/>
       <c r="BN47" s="71"/>
     </row>
-    <row r="48" spans="1:66" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="101" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104" t="str">
+    <row r="48" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="100"/>
+      <c r="B48" s="98"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25" t="str">
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J48" s="61"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73"/>
-      <c r="U48" s="73"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="73"/>
-      <c r="AA48" s="73"/>
-      <c r="AB48" s="73"/>
-      <c r="AC48" s="73"/>
-      <c r="AD48" s="73"/>
-      <c r="AE48" s="73"/>
-      <c r="AF48" s="73"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="73"/>
-      <c r="AI48" s="73"/>
-      <c r="AJ48" s="73"/>
-      <c r="AK48" s="73"/>
-      <c r="AL48" s="73"/>
-      <c r="AM48" s="73"/>
-      <c r="AN48" s="73"/>
-      <c r="AO48" s="73"/>
-      <c r="AP48" s="73"/>
-      <c r="AQ48" s="73"/>
-      <c r="AR48" s="73"/>
-      <c r="AS48" s="73"/>
-      <c r="AT48" s="73"/>
-      <c r="AU48" s="73"/>
-      <c r="AV48" s="73"/>
-      <c r="AW48" s="73"/>
-      <c r="AX48" s="73"/>
-      <c r="AY48" s="73"/>
-      <c r="AZ48" s="73"/>
-      <c r="BA48" s="73"/>
-      <c r="BB48" s="73"/>
-      <c r="BC48" s="73"/>
-      <c r="BD48" s="73"/>
-      <c r="BE48" s="73"/>
-      <c r="BF48" s="73"/>
-      <c r="BG48" s="73"/>
-      <c r="BH48" s="73"/>
-      <c r="BI48" s="73"/>
-      <c r="BJ48" s="73"/>
-      <c r="BK48" s="73"/>
-      <c r="BL48" s="73"/>
-      <c r="BM48" s="73"/>
-      <c r="BN48" s="73"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="71"/>
+      <c r="AA48" s="71"/>
+      <c r="AB48" s="71"/>
+      <c r="AC48" s="71"/>
+      <c r="AD48" s="71"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="71"/>
+      <c r="AH48" s="71"/>
+      <c r="AI48" s="71"/>
+      <c r="AJ48" s="71"/>
+      <c r="AK48" s="71"/>
+      <c r="AL48" s="71"/>
+      <c r="AM48" s="71"/>
+      <c r="AN48" s="71"/>
+      <c r="AO48" s="71"/>
+      <c r="AP48" s="71"/>
+      <c r="AQ48" s="71"/>
+      <c r="AR48" s="71"/>
+      <c r="AS48" s="71"/>
+      <c r="AT48" s="71"/>
+      <c r="AU48" s="71"/>
+      <c r="AV48" s="71"/>
+      <c r="AW48" s="71"/>
+      <c r="AX48" s="71"/>
+      <c r="AY48" s="71"/>
+      <c r="AZ48" s="71"/>
+      <c r="BA48" s="71"/>
+      <c r="BB48" s="71"/>
+      <c r="BC48" s="71"/>
+      <c r="BD48" s="71"/>
+      <c r="BE48" s="71"/>
+      <c r="BF48" s="71"/>
+      <c r="BG48" s="71"/>
+      <c r="BH48" s="71"/>
+      <c r="BI48" s="71"/>
+      <c r="BJ48" s="71"/>
+      <c r="BK48" s="71"/>
+      <c r="BL48" s="71"/>
+      <c r="BM48" s="71"/>
+      <c r="BN48" s="71"/>
     </row>
     <row r="49" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B49" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A49" s="100"/>
+      <c r="B49" s="98"/>
       <c r="D49" s="91"/>
       <c r="E49" s="102"/>
       <c r="F49" s="103" t="str">
@@ -6287,9 +6324,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G49" s="28"/>
-      <c r="H49" s="29">
-        <v>0</v>
-      </c>
+      <c r="H49" s="29"/>
       <c r="I49" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6353,13 +6388,8 @@
       <c r="BN49" s="71"/>
     </row>
     <row r="50" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B50" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A50" s="100"/>
+      <c r="B50" s="98"/>
       <c r="D50" s="91"/>
       <c r="E50" s="102"/>
       <c r="F50" s="103" t="str">
@@ -6367,9 +6397,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="29">
-        <v>0</v>
-      </c>
+      <c r="H50" s="29"/>
       <c r="I50" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6433,13 +6461,8 @@
       <c r="BN50" s="71"/>
     </row>
     <row r="51" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B51" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A51" s="100"/>
+      <c r="B51" s="98"/>
       <c r="D51" s="91"/>
       <c r="E51" s="102"/>
       <c r="F51" s="103" t="str">
@@ -6447,9 +6470,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G51" s="28"/>
-      <c r="H51" s="29">
-        <v>0</v>
-      </c>
+      <c r="H51" s="29"/>
       <c r="I51" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6513,13 +6534,8 @@
       <c r="BN51" s="71"/>
     </row>
     <row r="52" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
-      </c>
-      <c r="B52" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A52" s="100"/>
+      <c r="B52" s="98"/>
       <c r="D52" s="91"/>
       <c r="E52" s="102"/>
       <c r="F52" s="103" t="str">
@@ -6527,9 +6543,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G52" s="28"/>
-      <c r="H52" s="29">
-        <v>0</v>
-      </c>
+      <c r="H52" s="29"/>
       <c r="I52" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6593,13 +6607,8 @@
       <c r="BN52" s="71"/>
     </row>
     <row r="53" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B53" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A53" s="100"/>
+      <c r="B53" s="98"/>
       <c r="D53" s="91"/>
       <c r="E53" s="102"/>
       <c r="F53" s="103" t="str">
@@ -6607,9 +6616,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="29">
-        <v>0</v>
-      </c>
+      <c r="H53" s="29"/>
       <c r="I53" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6672,92 +6679,82 @@
       <c r="BM53" s="71"/>
       <c r="BN53" s="71"/>
     </row>
-    <row r="54" spans="1:66" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="101" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="104" t="str">
+    <row r="54" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="100"/>
+      <c r="B54" s="98"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="103" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="25" t="str">
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J54" s="61"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="73"/>
-      <c r="X54" s="73"/>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="73"/>
-      <c r="AC54" s="73"/>
-      <c r="AD54" s="73"/>
-      <c r="AE54" s="73"/>
-      <c r="AF54" s="73"/>
-      <c r="AG54" s="73"/>
-      <c r="AH54" s="73"/>
-      <c r="AI54" s="73"/>
-      <c r="AJ54" s="73"/>
-      <c r="AK54" s="73"/>
-      <c r="AL54" s="73"/>
-      <c r="AM54" s="73"/>
-      <c r="AN54" s="73"/>
-      <c r="AO54" s="73"/>
-      <c r="AP54" s="73"/>
-      <c r="AQ54" s="73"/>
-      <c r="AR54" s="73"/>
-      <c r="AS54" s="73"/>
-      <c r="AT54" s="73"/>
-      <c r="AU54" s="73"/>
-      <c r="AV54" s="73"/>
-      <c r="AW54" s="73"/>
-      <c r="AX54" s="73"/>
-      <c r="AY54" s="73"/>
-      <c r="AZ54" s="73"/>
-      <c r="BA54" s="73"/>
-      <c r="BB54" s="73"/>
-      <c r="BC54" s="73"/>
-      <c r="BD54" s="73"/>
-      <c r="BE54" s="73"/>
-      <c r="BF54" s="73"/>
-      <c r="BG54" s="73"/>
-      <c r="BH54" s="73"/>
-      <c r="BI54" s="73"/>
-      <c r="BJ54" s="73"/>
-      <c r="BK54" s="73"/>
-      <c r="BL54" s="73"/>
-      <c r="BM54" s="73"/>
-      <c r="BN54" s="73"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="71"/>
+      <c r="O54" s="71"/>
+      <c r="P54" s="71"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="71"/>
+      <c r="U54" s="71"/>
+      <c r="V54" s="71"/>
+      <c r="W54" s="71"/>
+      <c r="X54" s="71"/>
+      <c r="Y54" s="71"/>
+      <c r="Z54" s="71"/>
+      <c r="AA54" s="71"/>
+      <c r="AB54" s="71"/>
+      <c r="AC54" s="71"/>
+      <c r="AD54" s="71"/>
+      <c r="AE54" s="71"/>
+      <c r="AF54" s="71"/>
+      <c r="AG54" s="71"/>
+      <c r="AH54" s="71"/>
+      <c r="AI54" s="71"/>
+      <c r="AJ54" s="71"/>
+      <c r="AK54" s="71"/>
+      <c r="AL54" s="71"/>
+      <c r="AM54" s="71"/>
+      <c r="AN54" s="71"/>
+      <c r="AO54" s="71"/>
+      <c r="AP54" s="71"/>
+      <c r="AQ54" s="71"/>
+      <c r="AR54" s="71"/>
+      <c r="AS54" s="71"/>
+      <c r="AT54" s="71"/>
+      <c r="AU54" s="71"/>
+      <c r="AV54" s="71"/>
+      <c r="AW54" s="71"/>
+      <c r="AX54" s="71"/>
+      <c r="AY54" s="71"/>
+      <c r="AZ54" s="71"/>
+      <c r="BA54" s="71"/>
+      <c r="BB54" s="71"/>
+      <c r="BC54" s="71"/>
+      <c r="BD54" s="71"/>
+      <c r="BE54" s="71"/>
+      <c r="BF54" s="71"/>
+      <c r="BG54" s="71"/>
+      <c r="BH54" s="71"/>
+      <c r="BI54" s="71"/>
+      <c r="BJ54" s="71"/>
+      <c r="BK54" s="71"/>
+      <c r="BL54" s="71"/>
+      <c r="BM54" s="71"/>
+      <c r="BN54" s="71"/>
     </row>
     <row r="55" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B55" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A55" s="100"/>
+      <c r="B55" s="90"/>
       <c r="D55" s="91"/>
       <c r="E55" s="102"/>
       <c r="F55" s="103" t="str">
@@ -6765,9 +6762,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G55" s="28"/>
-      <c r="H55" s="29">
-        <v>0</v>
-      </c>
+      <c r="H55" s="29"/>
       <c r="I55" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6831,13 +6826,8 @@
       <c r="BN55" s="71"/>
     </row>
     <row r="56" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B56" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A56" s="100"/>
+      <c r="B56" s="90"/>
       <c r="D56" s="91"/>
       <c r="E56" s="102"/>
       <c r="F56" s="103" t="str">
@@ -6845,9 +6835,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="29">
-        <v>0</v>
-      </c>
+      <c r="H56" s="29"/>
       <c r="I56" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6911,13 +6899,8 @@
       <c r="BN56" s="71"/>
     </row>
     <row r="57" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A57" s="100"/>
+      <c r="B57" s="90"/>
       <c r="D57" s="91"/>
       <c r="E57" s="102"/>
       <c r="F57" s="103" t="str">
@@ -6925,9 +6908,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G57" s="28"/>
-      <c r="H57" s="29">
-        <v>0</v>
-      </c>
+      <c r="H57" s="29"/>
       <c r="I57" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -6991,13 +6972,8 @@
       <c r="BN57" s="71"/>
     </row>
     <row r="58" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>3</v>
-      </c>
+      <c r="A58" s="100"/>
+      <c r="B58" s="90"/>
       <c r="D58" s="91"/>
       <c r="E58" s="102"/>
       <c r="F58" s="103" t="str">
@@ -7005,9 +6981,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G58" s="28"/>
-      <c r="H58" s="29">
-        <v>0</v>
-      </c>
+      <c r="H58" s="29"/>
       <c r="I58" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -7072,11 +7046,11 @@
     </row>
     <row r="59" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A59" s="100" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
+        <f t="shared" si="5"/>
+        <v>0.1</v>
       </c>
       <c r="B59" s="90" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D59" s="91"/>
       <c r="E59" s="102"/>
@@ -7085,9 +7059,7 @@
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G59" s="28"/>
-      <c r="H59" s="29">
-        <v>0</v>
-      </c>
+      <c r="H59" s="29"/>
       <c r="I59" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
@@ -7150,20 +7122,27 @@
       <c r="BM59" s="71"/>
       <c r="BN59" s="71"/>
     </row>
-    <row r="60" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="35" t="str">
+    <row r="60" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>0.1.1</v>
+      </c>
+      <c r="B60" s="90"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29">
+        <v>0</v>
+      </c>
+      <c r="I60" s="30" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J60" s="62"/>
+      <c r="J60" s="60"/>
       <c r="K60" s="71"/>
       <c r="L60" s="71"/>
       <c r="M60" s="71"/>
@@ -7221,90 +7200,107 @@
       <c r="BM60" s="71"/>
       <c r="BN60" s="71"/>
     </row>
-    <row r="61" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="35" t="str">
+    <row r="61" spans="1:66" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="101" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="25" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J61" s="62"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
-      <c r="Q61" s="71"/>
-      <c r="R61" s="71"/>
-      <c r="S61" s="71"/>
-      <c r="T61" s="71"/>
-      <c r="U61" s="71"/>
-      <c r="V61" s="71"/>
-      <c r="W61" s="71"/>
-      <c r="X61" s="71"/>
-      <c r="Y61" s="71"/>
-      <c r="Z61" s="71"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="71"/>
-      <c r="AC61" s="71"/>
-      <c r="AD61" s="71"/>
-      <c r="AE61" s="71"/>
-      <c r="AF61" s="71"/>
-      <c r="AG61" s="71"/>
-      <c r="AH61" s="71"/>
-      <c r="AI61" s="71"/>
-      <c r="AJ61" s="71"/>
-      <c r="AK61" s="71"/>
-      <c r="AL61" s="71"/>
-      <c r="AM61" s="71"/>
-      <c r="AN61" s="71"/>
-      <c r="AO61" s="71"/>
-      <c r="AP61" s="71"/>
-      <c r="AQ61" s="71"/>
-      <c r="AR61" s="71"/>
-      <c r="AS61" s="71"/>
-      <c r="AT61" s="71"/>
-      <c r="AU61" s="71"/>
-      <c r="AV61" s="71"/>
-      <c r="AW61" s="71"/>
-      <c r="AX61" s="71"/>
-      <c r="AY61" s="71"/>
-      <c r="AZ61" s="71"/>
-      <c r="BA61" s="71"/>
-      <c r="BB61" s="71"/>
-      <c r="BC61" s="71"/>
-      <c r="BD61" s="71"/>
-      <c r="BE61" s="71"/>
-      <c r="BF61" s="71"/>
-      <c r="BG61" s="71"/>
-      <c r="BH61" s="71"/>
-      <c r="BI61" s="71"/>
-      <c r="BJ61" s="71"/>
-      <c r="BK61" s="71"/>
-      <c r="BL61" s="71"/>
-      <c r="BM61" s="71"/>
-      <c r="BN61" s="71"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
+      <c r="Z61" s="73"/>
+      <c r="AA61" s="73"/>
+      <c r="AB61" s="73"/>
+      <c r="AC61" s="73"/>
+      <c r="AD61" s="73"/>
+      <c r="AE61" s="73"/>
+      <c r="AF61" s="73"/>
+      <c r="AG61" s="73"/>
+      <c r="AH61" s="73"/>
+      <c r="AI61" s="73"/>
+      <c r="AJ61" s="73"/>
+      <c r="AK61" s="73"/>
+      <c r="AL61" s="73"/>
+      <c r="AM61" s="73"/>
+      <c r="AN61" s="73"/>
+      <c r="AO61" s="73"/>
+      <c r="AP61" s="73"/>
+      <c r="AQ61" s="73"/>
+      <c r="AR61" s="73"/>
+      <c r="AS61" s="73"/>
+      <c r="AT61" s="73"/>
+      <c r="AU61" s="73"/>
+      <c r="AV61" s="73"/>
+      <c r="AW61" s="73"/>
+      <c r="AX61" s="73"/>
+      <c r="AY61" s="73"/>
+      <c r="AZ61" s="73"/>
+      <c r="BA61" s="73"/>
+      <c r="BB61" s="73"/>
+      <c r="BC61" s="73"/>
+      <c r="BD61" s="73"/>
+      <c r="BE61" s="73"/>
+      <c r="BF61" s="73"/>
+      <c r="BG61" s="73"/>
+      <c r="BH61" s="73"/>
+      <c r="BI61" s="73"/>
+      <c r="BJ61" s="73"/>
+      <c r="BK61" s="73"/>
+      <c r="BL61" s="73"/>
+      <c r="BM61" s="73"/>
+      <c r="BN61" s="73"/>
     </row>
-    <row r="62" spans="1:66" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="63"/>
+    <row r="62" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B62" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="91"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29">
+        <v>0</v>
+      </c>
+      <c r="I62" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J62" s="60"/>
       <c r="K62" s="71"/>
       <c r="L62" s="71"/>
       <c r="M62" s="71"/>
@@ -7362,19 +7358,29 @@
       <c r="BM62" s="71"/>
       <c r="BN62" s="71"/>
     </row>
-    <row r="63" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="63"/>
+    <row r="63" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.2</v>
+      </c>
+      <c r="B63" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="91"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29">
+        <v>0</v>
+      </c>
+      <c r="I63" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J63" s="60"/>
       <c r="K63" s="71"/>
       <c r="L63" s="71"/>
       <c r="M63" s="71"/>
@@ -7432,28 +7438,29 @@
       <c r="BM63" s="71"/>
       <c r="BN63" s="71"/>
     </row>
-    <row r="64" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="94" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS," - ","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS," - ","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B64" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="66" t="str">
-        <f t="shared" ref="F64:F67" si="7">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+    <row r="64" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.3</v>
+      </c>
+      <c r="B64" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="91"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="103" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="46" t="str">
-        <f>IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J64" s="64"/>
+      <c r="H64" s="29">
+        <v>0</v>
+      </c>
+      <c r="I64" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J64" s="60"/>
       <c r="K64" s="71"/>
       <c r="L64" s="71"/>
       <c r="M64" s="71"/>
@@ -7511,28 +7518,29 @@
       <c r="BM64" s="71"/>
       <c r="BN64" s="71"/>
     </row>
-    <row r="65" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="26" t="str">
+    <row r="65" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B65" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="66" t="str">
-        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="91"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="103" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="46" t="str">
-        <f t="shared" ref="I65:I67" si="8">IF(OR(F65=0,E65=0)," - ",NETWORKDAYS(E65,F65))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J65" s="64"/>
+      <c r="H65" s="29">
+        <v>0</v>
+      </c>
+      <c r="I65" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J65" s="60"/>
       <c r="K65" s="71"/>
       <c r="L65" s="71"/>
       <c r="M65" s="71"/>
@@ -7590,28 +7598,29 @@
       <c r="BM65" s="71"/>
       <c r="BN65" s="71"/>
     </row>
-    <row r="66" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="26" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66" t="str">
-        <f t="shared" si="7"/>
+    <row r="66" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.5</v>
+      </c>
+      <c r="B66" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="91"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="103" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="46" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J66" s="64"/>
+      <c r="H66" s="29">
+        <v>0</v>
+      </c>
+      <c r="I66" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J66" s="60"/>
       <c r="K66" s="71"/>
       <c r="L66" s="71"/>
       <c r="M66" s="71"/>
@@ -7669,152 +7678,1627 @@
       <c r="BM66" s="71"/>
       <c r="BN66" s="71"/>
     </row>
-    <row r="67" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="str">
+    <row r="67" spans="1:66" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="101" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J67" s="61"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="73"/>
+      <c r="U67" s="73"/>
+      <c r="V67" s="73"/>
+      <c r="W67" s="73"/>
+      <c r="X67" s="73"/>
+      <c r="Y67" s="73"/>
+      <c r="Z67" s="73"/>
+      <c r="AA67" s="73"/>
+      <c r="AB67" s="73"/>
+      <c r="AC67" s="73"/>
+      <c r="AD67" s="73"/>
+      <c r="AE67" s="73"/>
+      <c r="AF67" s="73"/>
+      <c r="AG67" s="73"/>
+      <c r="AH67" s="73"/>
+      <c r="AI67" s="73"/>
+      <c r="AJ67" s="73"/>
+      <c r="AK67" s="73"/>
+      <c r="AL67" s="73"/>
+      <c r="AM67" s="73"/>
+      <c r="AN67" s="73"/>
+      <c r="AO67" s="73"/>
+      <c r="AP67" s="73"/>
+      <c r="AQ67" s="73"/>
+      <c r="AR67" s="73"/>
+      <c r="AS67" s="73"/>
+      <c r="AT67" s="73"/>
+      <c r="AU67" s="73"/>
+      <c r="AV67" s="73"/>
+      <c r="AW67" s="73"/>
+      <c r="AX67" s="73"/>
+      <c r="AY67" s="73"/>
+      <c r="AZ67" s="73"/>
+      <c r="BA67" s="73"/>
+      <c r="BB67" s="73"/>
+      <c r="BC67" s="73"/>
+      <c r="BD67" s="73"/>
+      <c r="BE67" s="73"/>
+      <c r="BF67" s="73"/>
+      <c r="BG67" s="73"/>
+      <c r="BH67" s="73"/>
+      <c r="BI67" s="73"/>
+      <c r="BJ67" s="73"/>
+      <c r="BK67" s="73"/>
+      <c r="BL67" s="73"/>
+      <c r="BM67" s="73"/>
+      <c r="BN67" s="73"/>
+    </row>
+    <row r="68" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B68" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="91"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29">
+        <v>0</v>
+      </c>
+      <c r="I68" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J68" s="60"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
+      <c r="V68" s="71"/>
+      <c r="W68" s="71"/>
+      <c r="X68" s="71"/>
+      <c r="Y68" s="71"/>
+      <c r="Z68" s="71"/>
+      <c r="AA68" s="71"/>
+      <c r="AB68" s="71"/>
+      <c r="AC68" s="71"/>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="71"/>
+      <c r="AF68" s="71"/>
+      <c r="AG68" s="71"/>
+      <c r="AH68" s="71"/>
+      <c r="AI68" s="71"/>
+      <c r="AJ68" s="71"/>
+      <c r="AK68" s="71"/>
+      <c r="AL68" s="71"/>
+      <c r="AM68" s="71"/>
+      <c r="AN68" s="71"/>
+      <c r="AO68" s="71"/>
+      <c r="AP68" s="71"/>
+      <c r="AQ68" s="71"/>
+      <c r="AR68" s="71"/>
+      <c r="AS68" s="71"/>
+      <c r="AT68" s="71"/>
+      <c r="AU68" s="71"/>
+      <c r="AV68" s="71"/>
+      <c r="AW68" s="71"/>
+      <c r="AX68" s="71"/>
+      <c r="AY68" s="71"/>
+      <c r="AZ68" s="71"/>
+      <c r="BA68" s="71"/>
+      <c r="BB68" s="71"/>
+      <c r="BC68" s="71"/>
+      <c r="BD68" s="71"/>
+      <c r="BE68" s="71"/>
+      <c r="BF68" s="71"/>
+      <c r="BG68" s="71"/>
+      <c r="BH68" s="71"/>
+      <c r="BI68" s="71"/>
+      <c r="BJ68" s="71"/>
+      <c r="BK68" s="71"/>
+      <c r="BL68" s="71"/>
+      <c r="BM68" s="71"/>
+      <c r="BN68" s="71"/>
+    </row>
+    <row r="69" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B69" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="91"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29">
+        <v>0</v>
+      </c>
+      <c r="I69" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J69" s="60"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="71"/>
+      <c r="V69" s="71"/>
+      <c r="W69" s="71"/>
+      <c r="X69" s="71"/>
+      <c r="Y69" s="71"/>
+      <c r="Z69" s="71"/>
+      <c r="AA69" s="71"/>
+      <c r="AB69" s="71"/>
+      <c r="AC69" s="71"/>
+      <c r="AD69" s="71"/>
+      <c r="AE69" s="71"/>
+      <c r="AF69" s="71"/>
+      <c r="AG69" s="71"/>
+      <c r="AH69" s="71"/>
+      <c r="AI69" s="71"/>
+      <c r="AJ69" s="71"/>
+      <c r="AK69" s="71"/>
+      <c r="AL69" s="71"/>
+      <c r="AM69" s="71"/>
+      <c r="AN69" s="71"/>
+      <c r="AO69" s="71"/>
+      <c r="AP69" s="71"/>
+      <c r="AQ69" s="71"/>
+      <c r="AR69" s="71"/>
+      <c r="AS69" s="71"/>
+      <c r="AT69" s="71"/>
+      <c r="AU69" s="71"/>
+      <c r="AV69" s="71"/>
+      <c r="AW69" s="71"/>
+      <c r="AX69" s="71"/>
+      <c r="AY69" s="71"/>
+      <c r="AZ69" s="71"/>
+      <c r="BA69" s="71"/>
+      <c r="BB69" s="71"/>
+      <c r="BC69" s="71"/>
+      <c r="BD69" s="71"/>
+      <c r="BE69" s="71"/>
+      <c r="BF69" s="71"/>
+      <c r="BG69" s="71"/>
+      <c r="BH69" s="71"/>
+      <c r="BI69" s="71"/>
+      <c r="BJ69" s="71"/>
+      <c r="BK69" s="71"/>
+      <c r="BL69" s="71"/>
+      <c r="BM69" s="71"/>
+      <c r="BN69" s="71"/>
+    </row>
+    <row r="70" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.3</v>
+      </c>
+      <c r="B70" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="91"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29">
+        <v>0</v>
+      </c>
+      <c r="I70" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J70" s="60"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="71"/>
+      <c r="V70" s="71"/>
+      <c r="W70" s="71"/>
+      <c r="X70" s="71"/>
+      <c r="Y70" s="71"/>
+      <c r="Z70" s="71"/>
+      <c r="AA70" s="71"/>
+      <c r="AB70" s="71"/>
+      <c r="AC70" s="71"/>
+      <c r="AD70" s="71"/>
+      <c r="AE70" s="71"/>
+      <c r="AF70" s="71"/>
+      <c r="AG70" s="71"/>
+      <c r="AH70" s="71"/>
+      <c r="AI70" s="71"/>
+      <c r="AJ70" s="71"/>
+      <c r="AK70" s="71"/>
+      <c r="AL70" s="71"/>
+      <c r="AM70" s="71"/>
+      <c r="AN70" s="71"/>
+      <c r="AO70" s="71"/>
+      <c r="AP70" s="71"/>
+      <c r="AQ70" s="71"/>
+      <c r="AR70" s="71"/>
+      <c r="AS70" s="71"/>
+      <c r="AT70" s="71"/>
+      <c r="AU70" s="71"/>
+      <c r="AV70" s="71"/>
+      <c r="AW70" s="71"/>
+      <c r="AX70" s="71"/>
+      <c r="AY70" s="71"/>
+      <c r="AZ70" s="71"/>
+      <c r="BA70" s="71"/>
+      <c r="BB70" s="71"/>
+      <c r="BC70" s="71"/>
+      <c r="BD70" s="71"/>
+      <c r="BE70" s="71"/>
+      <c r="BF70" s="71"/>
+      <c r="BG70" s="71"/>
+      <c r="BH70" s="71"/>
+      <c r="BI70" s="71"/>
+      <c r="BJ70" s="71"/>
+      <c r="BK70" s="71"/>
+      <c r="BL70" s="71"/>
+      <c r="BM70" s="71"/>
+      <c r="BN70" s="71"/>
+    </row>
+    <row r="71" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.4</v>
+      </c>
+      <c r="B71" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="91"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29">
+        <v>0</v>
+      </c>
+      <c r="I71" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J71" s="60"/>
+      <c r="K71" s="71"/>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="71"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="71"/>
+      <c r="S71" s="71"/>
+      <c r="T71" s="71"/>
+      <c r="U71" s="71"/>
+      <c r="V71" s="71"/>
+      <c r="W71" s="71"/>
+      <c r="X71" s="71"/>
+      <c r="Y71" s="71"/>
+      <c r="Z71" s="71"/>
+      <c r="AA71" s="71"/>
+      <c r="AB71" s="71"/>
+      <c r="AC71" s="71"/>
+      <c r="AD71" s="71"/>
+      <c r="AE71" s="71"/>
+      <c r="AF71" s="71"/>
+      <c r="AG71" s="71"/>
+      <c r="AH71" s="71"/>
+      <c r="AI71" s="71"/>
+      <c r="AJ71" s="71"/>
+      <c r="AK71" s="71"/>
+      <c r="AL71" s="71"/>
+      <c r="AM71" s="71"/>
+      <c r="AN71" s="71"/>
+      <c r="AO71" s="71"/>
+      <c r="AP71" s="71"/>
+      <c r="AQ71" s="71"/>
+      <c r="AR71" s="71"/>
+      <c r="AS71" s="71"/>
+      <c r="AT71" s="71"/>
+      <c r="AU71" s="71"/>
+      <c r="AV71" s="71"/>
+      <c r="AW71" s="71"/>
+      <c r="AX71" s="71"/>
+      <c r="AY71" s="71"/>
+      <c r="AZ71" s="71"/>
+      <c r="BA71" s="71"/>
+      <c r="BB71" s="71"/>
+      <c r="BC71" s="71"/>
+      <c r="BD71" s="71"/>
+      <c r="BE71" s="71"/>
+      <c r="BF71" s="71"/>
+      <c r="BG71" s="71"/>
+      <c r="BH71" s="71"/>
+      <c r="BI71" s="71"/>
+      <c r="BJ71" s="71"/>
+      <c r="BK71" s="71"/>
+      <c r="BL71" s="71"/>
+      <c r="BM71" s="71"/>
+      <c r="BN71" s="71"/>
+    </row>
+    <row r="72" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="B72" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="91"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29">
+        <v>0</v>
+      </c>
+      <c r="I72" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J72" s="60"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
+      <c r="N72" s="71"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="71"/>
+      <c r="Q72" s="71"/>
+      <c r="R72" s="71"/>
+      <c r="S72" s="71"/>
+      <c r="T72" s="71"/>
+      <c r="U72" s="71"/>
+      <c r="V72" s="71"/>
+      <c r="W72" s="71"/>
+      <c r="X72" s="71"/>
+      <c r="Y72" s="71"/>
+      <c r="Z72" s="71"/>
+      <c r="AA72" s="71"/>
+      <c r="AB72" s="71"/>
+      <c r="AC72" s="71"/>
+      <c r="AD72" s="71"/>
+      <c r="AE72" s="71"/>
+      <c r="AF72" s="71"/>
+      <c r="AG72" s="71"/>
+      <c r="AH72" s="71"/>
+      <c r="AI72" s="71"/>
+      <c r="AJ72" s="71"/>
+      <c r="AK72" s="71"/>
+      <c r="AL72" s="71"/>
+      <c r="AM72" s="71"/>
+      <c r="AN72" s="71"/>
+      <c r="AO72" s="71"/>
+      <c r="AP72" s="71"/>
+      <c r="AQ72" s="71"/>
+      <c r="AR72" s="71"/>
+      <c r="AS72" s="71"/>
+      <c r="AT72" s="71"/>
+      <c r="AU72" s="71"/>
+      <c r="AV72" s="71"/>
+      <c r="AW72" s="71"/>
+      <c r="AX72" s="71"/>
+      <c r="AY72" s="71"/>
+      <c r="AZ72" s="71"/>
+      <c r="BA72" s="71"/>
+      <c r="BB72" s="71"/>
+      <c r="BC72" s="71"/>
+      <c r="BD72" s="71"/>
+      <c r="BE72" s="71"/>
+      <c r="BF72" s="71"/>
+      <c r="BG72" s="71"/>
+      <c r="BH72" s="71"/>
+      <c r="BI72" s="71"/>
+      <c r="BJ72" s="71"/>
+      <c r="BK72" s="71"/>
+      <c r="BL72" s="71"/>
+      <c r="BM72" s="71"/>
+      <c r="BN72" s="71"/>
+    </row>
+    <row r="73" spans="1:66" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="101" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J73" s="61"/>
+      <c r="K73" s="73"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="U73" s="73"/>
+      <c r="V73" s="73"/>
+      <c r="W73" s="73"/>
+      <c r="X73" s="73"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="73"/>
+      <c r="AA73" s="73"/>
+      <c r="AB73" s="73"/>
+      <c r="AC73" s="73"/>
+      <c r="AD73" s="73"/>
+      <c r="AE73" s="73"/>
+      <c r="AF73" s="73"/>
+      <c r="AG73" s="73"/>
+      <c r="AH73" s="73"/>
+      <c r="AI73" s="73"/>
+      <c r="AJ73" s="73"/>
+      <c r="AK73" s="73"/>
+      <c r="AL73" s="73"/>
+      <c r="AM73" s="73"/>
+      <c r="AN73" s="73"/>
+      <c r="AO73" s="73"/>
+      <c r="AP73" s="73"/>
+      <c r="AQ73" s="73"/>
+      <c r="AR73" s="73"/>
+      <c r="AS73" s="73"/>
+      <c r="AT73" s="73"/>
+      <c r="AU73" s="73"/>
+      <c r="AV73" s="73"/>
+      <c r="AW73" s="73"/>
+      <c r="AX73" s="73"/>
+      <c r="AY73" s="73"/>
+      <c r="AZ73" s="73"/>
+      <c r="BA73" s="73"/>
+      <c r="BB73" s="73"/>
+      <c r="BC73" s="73"/>
+      <c r="BD73" s="73"/>
+      <c r="BE73" s="73"/>
+      <c r="BF73" s="73"/>
+      <c r="BG73" s="73"/>
+      <c r="BH73" s="73"/>
+      <c r="BI73" s="73"/>
+      <c r="BJ73" s="73"/>
+      <c r="BK73" s="73"/>
+      <c r="BL73" s="73"/>
+      <c r="BM73" s="73"/>
+      <c r="BN73" s="73"/>
+    </row>
+    <row r="74" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B74" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="91"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29">
+        <v>0</v>
+      </c>
+      <c r="I74" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J74" s="60"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="71"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
+      <c r="U74" s="71"/>
+      <c r="V74" s="71"/>
+      <c r="W74" s="71"/>
+      <c r="X74" s="71"/>
+      <c r="Y74" s="71"/>
+      <c r="Z74" s="71"/>
+      <c r="AA74" s="71"/>
+      <c r="AB74" s="71"/>
+      <c r="AC74" s="71"/>
+      <c r="AD74" s="71"/>
+      <c r="AE74" s="71"/>
+      <c r="AF74" s="71"/>
+      <c r="AG74" s="71"/>
+      <c r="AH74" s="71"/>
+      <c r="AI74" s="71"/>
+      <c r="AJ74" s="71"/>
+      <c r="AK74" s="71"/>
+      <c r="AL74" s="71"/>
+      <c r="AM74" s="71"/>
+      <c r="AN74" s="71"/>
+      <c r="AO74" s="71"/>
+      <c r="AP74" s="71"/>
+      <c r="AQ74" s="71"/>
+      <c r="AR74" s="71"/>
+      <c r="AS74" s="71"/>
+      <c r="AT74" s="71"/>
+      <c r="AU74" s="71"/>
+      <c r="AV74" s="71"/>
+      <c r="AW74" s="71"/>
+      <c r="AX74" s="71"/>
+      <c r="AY74" s="71"/>
+      <c r="AZ74" s="71"/>
+      <c r="BA74" s="71"/>
+      <c r="BB74" s="71"/>
+      <c r="BC74" s="71"/>
+      <c r="BD74" s="71"/>
+      <c r="BE74" s="71"/>
+      <c r="BF74" s="71"/>
+      <c r="BG74" s="71"/>
+      <c r="BH74" s="71"/>
+      <c r="BI74" s="71"/>
+      <c r="BJ74" s="71"/>
+      <c r="BK74" s="71"/>
+      <c r="BL74" s="71"/>
+      <c r="BM74" s="71"/>
+      <c r="BN74" s="71"/>
+    </row>
+    <row r="75" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B75" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="91"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G75" s="28"/>
+      <c r="H75" s="29">
+        <v>0</v>
+      </c>
+      <c r="I75" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J75" s="60"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="71"/>
+      <c r="N75" s="71"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
+      <c r="U75" s="71"/>
+      <c r="V75" s="71"/>
+      <c r="W75" s="71"/>
+      <c r="X75" s="71"/>
+      <c r="Y75" s="71"/>
+      <c r="Z75" s="71"/>
+      <c r="AA75" s="71"/>
+      <c r="AB75" s="71"/>
+      <c r="AC75" s="71"/>
+      <c r="AD75" s="71"/>
+      <c r="AE75" s="71"/>
+      <c r="AF75" s="71"/>
+      <c r="AG75" s="71"/>
+      <c r="AH75" s="71"/>
+      <c r="AI75" s="71"/>
+      <c r="AJ75" s="71"/>
+      <c r="AK75" s="71"/>
+      <c r="AL75" s="71"/>
+      <c r="AM75" s="71"/>
+      <c r="AN75" s="71"/>
+      <c r="AO75" s="71"/>
+      <c r="AP75" s="71"/>
+      <c r="AQ75" s="71"/>
+      <c r="AR75" s="71"/>
+      <c r="AS75" s="71"/>
+      <c r="AT75" s="71"/>
+      <c r="AU75" s="71"/>
+      <c r="AV75" s="71"/>
+      <c r="AW75" s="71"/>
+      <c r="AX75" s="71"/>
+      <c r="AY75" s="71"/>
+      <c r="AZ75" s="71"/>
+      <c r="BA75" s="71"/>
+      <c r="BB75" s="71"/>
+      <c r="BC75" s="71"/>
+      <c r="BD75" s="71"/>
+      <c r="BE75" s="71"/>
+      <c r="BF75" s="71"/>
+      <c r="BG75" s="71"/>
+      <c r="BH75" s="71"/>
+      <c r="BI75" s="71"/>
+      <c r="BJ75" s="71"/>
+      <c r="BK75" s="71"/>
+      <c r="BL75" s="71"/>
+      <c r="BM75" s="71"/>
+      <c r="BN75" s="71"/>
+    </row>
+    <row r="76" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B76" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="91"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G76" s="28"/>
+      <c r="H76" s="29">
+        <v>0</v>
+      </c>
+      <c r="I76" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J76" s="60"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
+      <c r="U76" s="71"/>
+      <c r="V76" s="71"/>
+      <c r="W76" s="71"/>
+      <c r="X76" s="71"/>
+      <c r="Y76" s="71"/>
+      <c r="Z76" s="71"/>
+      <c r="AA76" s="71"/>
+      <c r="AB76" s="71"/>
+      <c r="AC76" s="71"/>
+      <c r="AD76" s="71"/>
+      <c r="AE76" s="71"/>
+      <c r="AF76" s="71"/>
+      <c r="AG76" s="71"/>
+      <c r="AH76" s="71"/>
+      <c r="AI76" s="71"/>
+      <c r="AJ76" s="71"/>
+      <c r="AK76" s="71"/>
+      <c r="AL76" s="71"/>
+      <c r="AM76" s="71"/>
+      <c r="AN76" s="71"/>
+      <c r="AO76" s="71"/>
+      <c r="AP76" s="71"/>
+      <c r="AQ76" s="71"/>
+      <c r="AR76" s="71"/>
+      <c r="AS76" s="71"/>
+      <c r="AT76" s="71"/>
+      <c r="AU76" s="71"/>
+      <c r="AV76" s="71"/>
+      <c r="AW76" s="71"/>
+      <c r="AX76" s="71"/>
+      <c r="AY76" s="71"/>
+      <c r="AZ76" s="71"/>
+      <c r="BA76" s="71"/>
+      <c r="BB76" s="71"/>
+      <c r="BC76" s="71"/>
+      <c r="BD76" s="71"/>
+      <c r="BE76" s="71"/>
+      <c r="BF76" s="71"/>
+      <c r="BG76" s="71"/>
+      <c r="BH76" s="71"/>
+      <c r="BI76" s="71"/>
+      <c r="BJ76" s="71"/>
+      <c r="BK76" s="71"/>
+      <c r="BL76" s="71"/>
+      <c r="BM76" s="71"/>
+      <c r="BN76" s="71"/>
+    </row>
+    <row r="77" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.4</v>
+      </c>
+      <c r="B77" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="91"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29">
+        <v>0</v>
+      </c>
+      <c r="I77" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J77" s="60"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71"/>
+      <c r="S77" s="71"/>
+      <c r="T77" s="71"/>
+      <c r="U77" s="71"/>
+      <c r="V77" s="71"/>
+      <c r="W77" s="71"/>
+      <c r="X77" s="71"/>
+      <c r="Y77" s="71"/>
+      <c r="Z77" s="71"/>
+      <c r="AA77" s="71"/>
+      <c r="AB77" s="71"/>
+      <c r="AC77" s="71"/>
+      <c r="AD77" s="71"/>
+      <c r="AE77" s="71"/>
+      <c r="AF77" s="71"/>
+      <c r="AG77" s="71"/>
+      <c r="AH77" s="71"/>
+      <c r="AI77" s="71"/>
+      <c r="AJ77" s="71"/>
+      <c r="AK77" s="71"/>
+      <c r="AL77" s="71"/>
+      <c r="AM77" s="71"/>
+      <c r="AN77" s="71"/>
+      <c r="AO77" s="71"/>
+      <c r="AP77" s="71"/>
+      <c r="AQ77" s="71"/>
+      <c r="AR77" s="71"/>
+      <c r="AS77" s="71"/>
+      <c r="AT77" s="71"/>
+      <c r="AU77" s="71"/>
+      <c r="AV77" s="71"/>
+      <c r="AW77" s="71"/>
+      <c r="AX77" s="71"/>
+      <c r="AY77" s="71"/>
+      <c r="AZ77" s="71"/>
+      <c r="BA77" s="71"/>
+      <c r="BB77" s="71"/>
+      <c r="BC77" s="71"/>
+      <c r="BD77" s="71"/>
+      <c r="BE77" s="71"/>
+      <c r="BF77" s="71"/>
+      <c r="BG77" s="71"/>
+      <c r="BH77" s="71"/>
+      <c r="BI77" s="71"/>
+      <c r="BJ77" s="71"/>
+      <c r="BK77" s="71"/>
+      <c r="BL77" s="71"/>
+      <c r="BM77" s="71"/>
+      <c r="BN77" s="71"/>
+    </row>
+    <row r="78" spans="1:66" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="100" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.5</v>
+      </c>
+      <c r="B78" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="91"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="103" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29">
+        <v>0</v>
+      </c>
+      <c r="I78" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J78" s="60"/>
+      <c r="K78" s="71"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71"/>
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71"/>
+      <c r="S78" s="71"/>
+      <c r="T78" s="71"/>
+      <c r="U78" s="71"/>
+      <c r="V78" s="71"/>
+      <c r="W78" s="71"/>
+      <c r="X78" s="71"/>
+      <c r="Y78" s="71"/>
+      <c r="Z78" s="71"/>
+      <c r="AA78" s="71"/>
+      <c r="AB78" s="71"/>
+      <c r="AC78" s="71"/>
+      <c r="AD78" s="71"/>
+      <c r="AE78" s="71"/>
+      <c r="AF78" s="71"/>
+      <c r="AG78" s="71"/>
+      <c r="AH78" s="71"/>
+      <c r="AI78" s="71"/>
+      <c r="AJ78" s="71"/>
+      <c r="AK78" s="71"/>
+      <c r="AL78" s="71"/>
+      <c r="AM78" s="71"/>
+      <c r="AN78" s="71"/>
+      <c r="AO78" s="71"/>
+      <c r="AP78" s="71"/>
+      <c r="AQ78" s="71"/>
+      <c r="AR78" s="71"/>
+      <c r="AS78" s="71"/>
+      <c r="AT78" s="71"/>
+      <c r="AU78" s="71"/>
+      <c r="AV78" s="71"/>
+      <c r="AW78" s="71"/>
+      <c r="AX78" s="71"/>
+      <c r="AY78" s="71"/>
+      <c r="AZ78" s="71"/>
+      <c r="BA78" s="71"/>
+      <c r="BB78" s="71"/>
+      <c r="BC78" s="71"/>
+      <c r="BD78" s="71"/>
+      <c r="BE78" s="71"/>
+      <c r="BF78" s="71"/>
+      <c r="BG78" s="71"/>
+      <c r="BH78" s="71"/>
+      <c r="BI78" s="71"/>
+      <c r="BJ78" s="71"/>
+      <c r="BK78" s="71"/>
+      <c r="BL78" s="71"/>
+      <c r="BM78" s="71"/>
+      <c r="BN78" s="71"/>
+    </row>
+    <row r="79" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="26"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J79" s="62"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="71"/>
+      <c r="O79" s="71"/>
+      <c r="P79" s="71"/>
+      <c r="Q79" s="71"/>
+      <c r="R79" s="71"/>
+      <c r="S79" s="71"/>
+      <c r="T79" s="71"/>
+      <c r="U79" s="71"/>
+      <c r="V79" s="71"/>
+      <c r="W79" s="71"/>
+      <c r="X79" s="71"/>
+      <c r="Y79" s="71"/>
+      <c r="Z79" s="71"/>
+      <c r="AA79" s="71"/>
+      <c r="AB79" s="71"/>
+      <c r="AC79" s="71"/>
+      <c r="AD79" s="71"/>
+      <c r="AE79" s="71"/>
+      <c r="AF79" s="71"/>
+      <c r="AG79" s="71"/>
+      <c r="AH79" s="71"/>
+      <c r="AI79" s="71"/>
+      <c r="AJ79" s="71"/>
+      <c r="AK79" s="71"/>
+      <c r="AL79" s="71"/>
+      <c r="AM79" s="71"/>
+      <c r="AN79" s="71"/>
+      <c r="AO79" s="71"/>
+      <c r="AP79" s="71"/>
+      <c r="AQ79" s="71"/>
+      <c r="AR79" s="71"/>
+      <c r="AS79" s="71"/>
+      <c r="AT79" s="71"/>
+      <c r="AU79" s="71"/>
+      <c r="AV79" s="71"/>
+      <c r="AW79" s="71"/>
+      <c r="AX79" s="71"/>
+      <c r="AY79" s="71"/>
+      <c r="AZ79" s="71"/>
+      <c r="BA79" s="71"/>
+      <c r="BB79" s="71"/>
+      <c r="BC79" s="71"/>
+      <c r="BD79" s="71"/>
+      <c r="BE79" s="71"/>
+      <c r="BF79" s="71"/>
+      <c r="BG79" s="71"/>
+      <c r="BH79" s="71"/>
+      <c r="BI79" s="71"/>
+      <c r="BJ79" s="71"/>
+      <c r="BK79" s="71"/>
+      <c r="BL79" s="71"/>
+      <c r="BM79" s="71"/>
+      <c r="BN79" s="71"/>
+    </row>
+    <row r="80" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="26"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J80" s="62"/>
+      <c r="K80" s="71"/>
+      <c r="L80" s="71"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="71"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="71"/>
+      <c r="Q80" s="71"/>
+      <c r="R80" s="71"/>
+      <c r="S80" s="71"/>
+      <c r="T80" s="71"/>
+      <c r="U80" s="71"/>
+      <c r="V80" s="71"/>
+      <c r="W80" s="71"/>
+      <c r="X80" s="71"/>
+      <c r="Y80" s="71"/>
+      <c r="Z80" s="71"/>
+      <c r="AA80" s="71"/>
+      <c r="AB80" s="71"/>
+      <c r="AC80" s="71"/>
+      <c r="AD80" s="71"/>
+      <c r="AE80" s="71"/>
+      <c r="AF80" s="71"/>
+      <c r="AG80" s="71"/>
+      <c r="AH80" s="71"/>
+      <c r="AI80" s="71"/>
+      <c r="AJ80" s="71"/>
+      <c r="AK80" s="71"/>
+      <c r="AL80" s="71"/>
+      <c r="AM80" s="71"/>
+      <c r="AN80" s="71"/>
+      <c r="AO80" s="71"/>
+      <c r="AP80" s="71"/>
+      <c r="AQ80" s="71"/>
+      <c r="AR80" s="71"/>
+      <c r="AS80" s="71"/>
+      <c r="AT80" s="71"/>
+      <c r="AU80" s="71"/>
+      <c r="AV80" s="71"/>
+      <c r="AW80" s="71"/>
+      <c r="AX80" s="71"/>
+      <c r="AY80" s="71"/>
+      <c r="AZ80" s="71"/>
+      <c r="BA80" s="71"/>
+      <c r="BB80" s="71"/>
+      <c r="BC80" s="71"/>
+      <c r="BD80" s="71"/>
+      <c r="BE80" s="71"/>
+      <c r="BF80" s="71"/>
+      <c r="BG80" s="71"/>
+      <c r="BH80" s="71"/>
+      <c r="BI80" s="71"/>
+      <c r="BJ80" s="71"/>
+      <c r="BK80" s="71"/>
+      <c r="BL80" s="71"/>
+      <c r="BM80" s="71"/>
+      <c r="BN80" s="71"/>
+    </row>
+    <row r="81" spans="1:66" s="41" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="71"/>
+      <c r="L81" s="71"/>
+      <c r="M81" s="71"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="71"/>
+      <c r="P81" s="71"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="71"/>
+      <c r="T81" s="71"/>
+      <c r="U81" s="71"/>
+      <c r="V81" s="71"/>
+      <c r="W81" s="71"/>
+      <c r="X81" s="71"/>
+      <c r="Y81" s="71"/>
+      <c r="Z81" s="71"/>
+      <c r="AA81" s="71"/>
+      <c r="AB81" s="71"/>
+      <c r="AC81" s="71"/>
+      <c r="AD81" s="71"/>
+      <c r="AE81" s="71"/>
+      <c r="AF81" s="71"/>
+      <c r="AG81" s="71"/>
+      <c r="AH81" s="71"/>
+      <c r="AI81" s="71"/>
+      <c r="AJ81" s="71"/>
+      <c r="AK81" s="71"/>
+      <c r="AL81" s="71"/>
+      <c r="AM81" s="71"/>
+      <c r="AN81" s="71"/>
+      <c r="AO81" s="71"/>
+      <c r="AP81" s="71"/>
+      <c r="AQ81" s="71"/>
+      <c r="AR81" s="71"/>
+      <c r="AS81" s="71"/>
+      <c r="AT81" s="71"/>
+      <c r="AU81" s="71"/>
+      <c r="AV81" s="71"/>
+      <c r="AW81" s="71"/>
+      <c r="AX81" s="71"/>
+      <c r="AY81" s="71"/>
+      <c r="AZ81" s="71"/>
+      <c r="BA81" s="71"/>
+      <c r="BB81" s="71"/>
+      <c r="BC81" s="71"/>
+      <c r="BD81" s="71"/>
+      <c r="BE81" s="71"/>
+      <c r="BF81" s="71"/>
+      <c r="BG81" s="71"/>
+      <c r="BH81" s="71"/>
+      <c r="BI81" s="71"/>
+      <c r="BJ81" s="71"/>
+      <c r="BK81" s="71"/>
+      <c r="BL81" s="71"/>
+      <c r="BM81" s="71"/>
+      <c r="BN81" s="71"/>
+    </row>
+    <row r="82" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="71"/>
+      <c r="T82" s="71"/>
+      <c r="U82" s="71"/>
+      <c r="V82" s="71"/>
+      <c r="W82" s="71"/>
+      <c r="X82" s="71"/>
+      <c r="Y82" s="71"/>
+      <c r="Z82" s="71"/>
+      <c r="AA82" s="71"/>
+      <c r="AB82" s="71"/>
+      <c r="AC82" s="71"/>
+      <c r="AD82" s="71"/>
+      <c r="AE82" s="71"/>
+      <c r="AF82" s="71"/>
+      <c r="AG82" s="71"/>
+      <c r="AH82" s="71"/>
+      <c r="AI82" s="71"/>
+      <c r="AJ82" s="71"/>
+      <c r="AK82" s="71"/>
+      <c r="AL82" s="71"/>
+      <c r="AM82" s="71"/>
+      <c r="AN82" s="71"/>
+      <c r="AO82" s="71"/>
+      <c r="AP82" s="71"/>
+      <c r="AQ82" s="71"/>
+      <c r="AR82" s="71"/>
+      <c r="AS82" s="71"/>
+      <c r="AT82" s="71"/>
+      <c r="AU82" s="71"/>
+      <c r="AV82" s="71"/>
+      <c r="AW82" s="71"/>
+      <c r="AX82" s="71"/>
+      <c r="AY82" s="71"/>
+      <c r="AZ82" s="71"/>
+      <c r="BA82" s="71"/>
+      <c r="BB82" s="71"/>
+      <c r="BC82" s="71"/>
+      <c r="BD82" s="71"/>
+      <c r="BE82" s="71"/>
+      <c r="BF82" s="71"/>
+      <c r="BG82" s="71"/>
+      <c r="BH82" s="71"/>
+      <c r="BI82" s="71"/>
+      <c r="BJ82" s="71"/>
+      <c r="BK82" s="71"/>
+      <c r="BL82" s="71"/>
+      <c r="BM82" s="71"/>
+      <c r="BN82" s="71"/>
+    </row>
+    <row r="83" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="94" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS," - ","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS," - ","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B83" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="66" t="str">
+        <f t="shared" ref="F83:F86" si="7">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G83" s="28"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="46" t="str">
+        <f>IF(OR(F83=0,E83=0)," - ",NETWORKDAYS(E83,F83))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J83" s="64"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="71"/>
+      <c r="Q83" s="71"/>
+      <c r="R83" s="71"/>
+      <c r="S83" s="71"/>
+      <c r="T83" s="71"/>
+      <c r="U83" s="71"/>
+      <c r="V83" s="71"/>
+      <c r="W83" s="71"/>
+      <c r="X83" s="71"/>
+      <c r="Y83" s="71"/>
+      <c r="Z83" s="71"/>
+      <c r="AA83" s="71"/>
+      <c r="AB83" s="71"/>
+      <c r="AC83" s="71"/>
+      <c r="AD83" s="71"/>
+      <c r="AE83" s="71"/>
+      <c r="AF83" s="71"/>
+      <c r="AG83" s="71"/>
+      <c r="AH83" s="71"/>
+      <c r="AI83" s="71"/>
+      <c r="AJ83" s="71"/>
+      <c r="AK83" s="71"/>
+      <c r="AL83" s="71"/>
+      <c r="AM83" s="71"/>
+      <c r="AN83" s="71"/>
+      <c r="AO83" s="71"/>
+      <c r="AP83" s="71"/>
+      <c r="AQ83" s="71"/>
+      <c r="AR83" s="71"/>
+      <c r="AS83" s="71"/>
+      <c r="AT83" s="71"/>
+      <c r="AU83" s="71"/>
+      <c r="AV83" s="71"/>
+      <c r="AW83" s="71"/>
+      <c r="AX83" s="71"/>
+      <c r="AY83" s="71"/>
+      <c r="AZ83" s="71"/>
+      <c r="BA83" s="71"/>
+      <c r="BB83" s="71"/>
+      <c r="BC83" s="71"/>
+      <c r="BD83" s="71"/>
+      <c r="BE83" s="71"/>
+      <c r="BF83" s="71"/>
+      <c r="BG83" s="71"/>
+      <c r="BH83" s="71"/>
+      <c r="BI83" s="71"/>
+      <c r="BJ83" s="71"/>
+      <c r="BK83" s="71"/>
+      <c r="BL83" s="71"/>
+      <c r="BM83" s="71"/>
+      <c r="BN83" s="71"/>
+    </row>
+    <row r="84" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="26" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="47"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G84" s="28"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="46" t="str">
+        <f t="shared" ref="I84:I86" si="8">IF(OR(F84=0,E84=0)," - ",NETWORKDAYS(E84,F84))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J84" s="64"/>
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+      <c r="T84" s="71"/>
+      <c r="U84" s="71"/>
+      <c r="V84" s="71"/>
+      <c r="W84" s="71"/>
+      <c r="X84" s="71"/>
+      <c r="Y84" s="71"/>
+      <c r="Z84" s="71"/>
+      <c r="AA84" s="71"/>
+      <c r="AB84" s="71"/>
+      <c r="AC84" s="71"/>
+      <c r="AD84" s="71"/>
+      <c r="AE84" s="71"/>
+      <c r="AF84" s="71"/>
+      <c r="AG84" s="71"/>
+      <c r="AH84" s="71"/>
+      <c r="AI84" s="71"/>
+      <c r="AJ84" s="71"/>
+      <c r="AK84" s="71"/>
+      <c r="AL84" s="71"/>
+      <c r="AM84" s="71"/>
+      <c r="AN84" s="71"/>
+      <c r="AO84" s="71"/>
+      <c r="AP84" s="71"/>
+      <c r="AQ84" s="71"/>
+      <c r="AR84" s="71"/>
+      <c r="AS84" s="71"/>
+      <c r="AT84" s="71"/>
+      <c r="AU84" s="71"/>
+      <c r="AV84" s="71"/>
+      <c r="AW84" s="71"/>
+      <c r="AX84" s="71"/>
+      <c r="AY84" s="71"/>
+      <c r="AZ84" s="71"/>
+      <c r="BA84" s="71"/>
+      <c r="BB84" s="71"/>
+      <c r="BC84" s="71"/>
+      <c r="BD84" s="71"/>
+      <c r="BE84" s="71"/>
+      <c r="BF84" s="71"/>
+      <c r="BG84" s="71"/>
+      <c r="BH84" s="71"/>
+      <c r="BI84" s="71"/>
+      <c r="BJ84" s="71"/>
+      <c r="BK84" s="71"/>
+      <c r="BL84" s="71"/>
+      <c r="BM84" s="71"/>
+      <c r="BN84" s="71"/>
+    </row>
+    <row r="85" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="26" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B85" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="47"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="66" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G85" s="28"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="46" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J85" s="64"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="71"/>
+      <c r="O85" s="71"/>
+      <c r="P85" s="71"/>
+      <c r="Q85" s="71"/>
+      <c r="R85" s="71"/>
+      <c r="S85" s="71"/>
+      <c r="T85" s="71"/>
+      <c r="U85" s="71"/>
+      <c r="V85" s="71"/>
+      <c r="W85" s="71"/>
+      <c r="X85" s="71"/>
+      <c r="Y85" s="71"/>
+      <c r="Z85" s="71"/>
+      <c r="AA85" s="71"/>
+      <c r="AB85" s="71"/>
+      <c r="AC85" s="71"/>
+      <c r="AD85" s="71"/>
+      <c r="AE85" s="71"/>
+      <c r="AF85" s="71"/>
+      <c r="AG85" s="71"/>
+      <c r="AH85" s="71"/>
+      <c r="AI85" s="71"/>
+      <c r="AJ85" s="71"/>
+      <c r="AK85" s="71"/>
+      <c r="AL85" s="71"/>
+      <c r="AM85" s="71"/>
+      <c r="AN85" s="71"/>
+      <c r="AO85" s="71"/>
+      <c r="AP85" s="71"/>
+      <c r="AQ85" s="71"/>
+      <c r="AR85" s="71"/>
+      <c r="AS85" s="71"/>
+      <c r="AT85" s="71"/>
+      <c r="AU85" s="71"/>
+      <c r="AV85" s="71"/>
+      <c r="AW85" s="71"/>
+      <c r="AX85" s="71"/>
+      <c r="AY85" s="71"/>
+      <c r="AZ85" s="71"/>
+      <c r="BA85" s="71"/>
+      <c r="BB85" s="71"/>
+      <c r="BC85" s="71"/>
+      <c r="BD85" s="71"/>
+      <c r="BE85" s="71"/>
+      <c r="BF85" s="71"/>
+      <c r="BG85" s="71"/>
+      <c r="BH85" s="71"/>
+      <c r="BI85" s="71"/>
+      <c r="BJ85" s="71"/>
+      <c r="BK85" s="71"/>
+      <c r="BL85" s="71"/>
+      <c r="BM85" s="71"/>
+      <c r="BN85" s="71"/>
+    </row>
+    <row r="86" spans="1:66" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="26" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B86" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="66" t="str">
+      <c r="C86" s="47"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="66" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="46" t="str">
+      <c r="G86" s="28"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="46" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J67" s="64"/>
-      <c r="K67" s="71"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71"/>
-      <c r="O67" s="71"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="71"/>
-      <c r="R67" s="71"/>
-      <c r="S67" s="71"/>
-      <c r="T67" s="71"/>
-      <c r="U67" s="71"/>
-      <c r="V67" s="71"/>
-      <c r="W67" s="71"/>
-      <c r="X67" s="71"/>
-      <c r="Y67" s="71"/>
-      <c r="Z67" s="71"/>
-      <c r="AA67" s="71"/>
-      <c r="AB67" s="71"/>
-      <c r="AC67" s="71"/>
-      <c r="AD67" s="71"/>
-      <c r="AE67" s="71"/>
-      <c r="AF67" s="71"/>
-      <c r="AG67" s="71"/>
-      <c r="AH67" s="71"/>
-      <c r="AI67" s="71"/>
-      <c r="AJ67" s="71"/>
-      <c r="AK67" s="71"/>
-      <c r="AL67" s="71"/>
-      <c r="AM67" s="71"/>
-      <c r="AN67" s="71"/>
-      <c r="AO67" s="71"/>
-      <c r="AP67" s="71"/>
-      <c r="AQ67" s="71"/>
-      <c r="AR67" s="71"/>
-      <c r="AS67" s="71"/>
-      <c r="AT67" s="71"/>
-      <c r="AU67" s="71"/>
-      <c r="AV67" s="71"/>
-      <c r="AW67" s="71"/>
-      <c r="AX67" s="71"/>
-      <c r="AY67" s="71"/>
-      <c r="AZ67" s="71"/>
-      <c r="BA67" s="71"/>
-      <c r="BB67" s="71"/>
-      <c r="BC67" s="71"/>
-      <c r="BD67" s="71"/>
-      <c r="BE67" s="71"/>
-      <c r="BF67" s="71"/>
-      <c r="BG67" s="71"/>
-      <c r="BH67" s="71"/>
-      <c r="BI67" s="71"/>
-      <c r="BJ67" s="71"/>
-      <c r="BK67" s="71"/>
-      <c r="BL67" s="71"/>
-      <c r="BM67" s="71"/>
-      <c r="BN67" s="71"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="71"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="71"/>
+      <c r="R86" s="71"/>
+      <c r="S86" s="71"/>
+      <c r="T86" s="71"/>
+      <c r="U86" s="71"/>
+      <c r="V86" s="71"/>
+      <c r="W86" s="71"/>
+      <c r="X86" s="71"/>
+      <c r="Y86" s="71"/>
+      <c r="Z86" s="71"/>
+      <c r="AA86" s="71"/>
+      <c r="AB86" s="71"/>
+      <c r="AC86" s="71"/>
+      <c r="AD86" s="71"/>
+      <c r="AE86" s="71"/>
+      <c r="AF86" s="71"/>
+      <c r="AG86" s="71"/>
+      <c r="AH86" s="71"/>
+      <c r="AI86" s="71"/>
+      <c r="AJ86" s="71"/>
+      <c r="AK86" s="71"/>
+      <c r="AL86" s="71"/>
+      <c r="AM86" s="71"/>
+      <c r="AN86" s="71"/>
+      <c r="AO86" s="71"/>
+      <c r="AP86" s="71"/>
+      <c r="AQ86" s="71"/>
+      <c r="AR86" s="71"/>
+      <c r="AS86" s="71"/>
+      <c r="AT86" s="71"/>
+      <c r="AU86" s="71"/>
+      <c r="AV86" s="71"/>
+      <c r="AW86" s="71"/>
+      <c r="AX86" s="71"/>
+      <c r="AY86" s="71"/>
+      <c r="AZ86" s="71"/>
+      <c r="BA86" s="71"/>
+      <c r="BB86" s="71"/>
+      <c r="BC86" s="71"/>
+      <c r="BD86" s="71"/>
+      <c r="BE86" s="71"/>
+      <c r="BF86" s="71"/>
+      <c r="BG86" s="71"/>
+      <c r="BH86" s="71"/>
+      <c r="BI86" s="71"/>
+      <c r="BJ86" s="71"/>
+      <c r="BK86" s="71"/>
+      <c r="BL86" s="71"/>
+      <c r="BM86" s="71"/>
+      <c r="BN86" s="71"/>
     </row>
-    <row r="68" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="10"/>
-      <c r="AE68" s="10"/>
-      <c r="AF68" s="10"/>
-      <c r="AG68" s="10"/>
-      <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
-      <c r="AJ68" s="10"/>
-      <c r="AK68" s="10"/>
-      <c r="AL68" s="10"/>
-      <c r="AM68" s="10"/>
-      <c r="AN68" s="10"/>
-      <c r="AO68" s="10"/>
-      <c r="AP68" s="10"/>
-      <c r="AQ68" s="10"/>
-      <c r="AR68" s="10"/>
-      <c r="AS68" s="10"/>
-      <c r="AT68" s="10"/>
-      <c r="AU68" s="10"/>
-      <c r="AV68" s="10"/>
-      <c r="AW68" s="10"/>
-      <c r="AX68" s="10"/>
-      <c r="AY68" s="10"/>
-      <c r="AZ68" s="10"/>
-      <c r="BA68" s="10"/>
-      <c r="BB68" s="10"/>
-      <c r="BC68" s="10"/>
-      <c r="BD68" s="10"/>
-      <c r="BE68" s="10"/>
-      <c r="BF68" s="10"/>
-      <c r="BG68" s="10"/>
-      <c r="BH68" s="10"/>
-      <c r="BI68" s="10"/>
-      <c r="BJ68" s="10"/>
-      <c r="BK68" s="10"/>
-      <c r="BL68" s="10"/>
-      <c r="BM68" s="10"/>
-      <c r="BN68" s="10"/>
+    <row r="87" spans="1:66" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+      <c r="AH87" s="10"/>
+      <c r="AI87" s="10"/>
+      <c r="AJ87" s="10"/>
+      <c r="AK87" s="10"/>
+      <c r="AL87" s="10"/>
+      <c r="AM87" s="10"/>
+      <c r="AN87" s="10"/>
+      <c r="AO87" s="10"/>
+      <c r="AP87" s="10"/>
+      <c r="AQ87" s="10"/>
+      <c r="AR87" s="10"/>
+      <c r="AS87" s="10"/>
+      <c r="AT87" s="10"/>
+      <c r="AU87" s="10"/>
+      <c r="AV87" s="10"/>
+      <c r="AW87" s="10"/>
+      <c r="AX87" s="10"/>
+      <c r="AY87" s="10"/>
+      <c r="AZ87" s="10"/>
+      <c r="BA87" s="10"/>
+      <c r="BB87" s="10"/>
+      <c r="BC87" s="10"/>
+      <c r="BD87" s="10"/>
+      <c r="BE87" s="10"/>
+      <c r="BF87" s="10"/>
+      <c r="BG87" s="10"/>
+      <c r="BH87" s="10"/>
+      <c r="BI87" s="10"/>
+      <c r="BJ87" s="10"/>
+      <c r="BK87" s="10"/>
+      <c r="BL87" s="10"/>
+      <c r="BM87" s="10"/>
+      <c r="BN87" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
@@ -7840,7 +9324,7 @@
     <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H67">
+  <conditionalFormatting sqref="H8:H86">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7859,7 +9343,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN67">
+  <conditionalFormatting sqref="K8:BN86">
     <cfRule type="expression" dxfId="2" priority="48">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -7867,7 +9351,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN67">
+  <conditionalFormatting sqref="K6:BN86">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -7882,8 +9366,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A60:B61 B55 B56:B58 B49:B52 B43:B46 A63:B63 B62 E60:H63 H42 H48 H54:H58 H46 G64 G65:G66 G67 H44 H45 H49:H52" unlockedFormula="1"/>
-    <ignoredError sqref="A54 A48 A42" formula="1"/>
+    <ignoredError sqref="A79:B80 B74 B75:B77 B68:B71 B62:B65 A82:B82 B81 E79:H82 H61 H67 H73:H77 H65 G83 G84:G85 G86 H63 H64 H68:H71" unlockedFormula="1"/>
+    <ignoredError sqref="A73 A67 A61 A19 A16 A22" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -7931,7 +9415,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H67</xm:sqref>
+          <xm:sqref>H8:H86</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
